--- a/Tipo_1_CM1.xlsx
+++ b/Tipo_1_CM1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FlutterApps\dasho2\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB15E21-9A04-4901-B01A-0FAB9A3E28EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BD60EA-1E97-40B5-B192-E6C6CC5AC787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16305" yWindow="4665" windowWidth="16410" windowHeight="16785" tabRatio="690" firstSheet="5" activeTab="7" xr2:uid="{659C689A-1CB2-447E-9636-51EC9D269BAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="690" firstSheet="3" activeTab="5" xr2:uid="{659C689A-1CB2-447E-9636-51EC9D269BAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="8" r:id="rId1"/>
@@ -4845,8 +4845,8 @@
   </sheetPr>
   <dimension ref="A1:H264"/>
   <sheetViews>
-    <sheetView topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="C268" sqref="C268"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5391,7 +5391,7 @@
         <v>102</v>
       </c>
       <c r="D21">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
         <v>75</v>
@@ -5403,7 +5403,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H21">
-        <v>7.26</v>
+        <v>12.100000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -5417,7 +5417,7 @@
         <v>127</v>
       </c>
       <c r="D22">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="E22" t="s">
         <v>83</v>
@@ -5443,7 +5443,7 @@
         <v>82</v>
       </c>
       <c r="D23">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E23" t="s">
         <v>83</v>
@@ -5469,7 +5469,7 @@
         <v>146</v>
       </c>
       <c r="D24">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="E24" t="s">
         <v>143</v>
@@ -5481,7 +5481,7 @@
         <v>6</v>
       </c>
       <c r="H24">
-        <v>28.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -5495,7 +5495,7 @@
         <v>110</v>
       </c>
       <c r="D25">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="E25" t="s">
         <v>75</v>
@@ -5507,7 +5507,7 @@
         <v>11</v>
       </c>
       <c r="H25">
-        <v>0.88</v>
+        <v>1.3199999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -5521,7 +5521,7 @@
         <v>102</v>
       </c>
       <c r="D26">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="E26" t="s">
         <v>75</v>
@@ -5533,7 +5533,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H26">
-        <v>146.30000000000001</v>
+        <v>231.00000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -5547,7 +5547,7 @@
         <v>74</v>
       </c>
       <c r="D27">
-        <v>0.38</v>
+        <v>0.6</v>
       </c>
       <c r="E27" t="s">
         <v>75</v>
@@ -5559,7 +5559,7 @@
         <v>11</v>
       </c>
       <c r="H27">
-        <v>4.18</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -5573,7 +5573,7 @@
         <v>123</v>
       </c>
       <c r="D28">
-        <v>16.440000000000001</v>
+        <v>25.95</v>
       </c>
       <c r="E28" t="s">
         <v>75</v>
@@ -5585,7 +5585,7 @@
         <v>9</v>
       </c>
       <c r="H28">
-        <v>147.96</v>
+        <v>233.54999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -5599,7 +5599,7 @@
         <v>127</v>
       </c>
       <c r="D29">
-        <v>0.34</v>
+        <v>0.54</v>
       </c>
       <c r="E29" t="s">
         <v>83</v>
@@ -5625,7 +5625,7 @@
         <v>82</v>
       </c>
       <c r="D30">
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
       <c r="E30" t="s">
         <v>83</v>
@@ -5859,7 +5859,7 @@
         <v>102</v>
       </c>
       <c r="D39">
-        <v>1338.75</v>
+        <v>1678.25</v>
       </c>
       <c r="E39" t="s">
         <v>75</v>
@@ -5871,7 +5871,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H39">
-        <v>1472.6250000000002</v>
+        <v>1846.075</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -5885,7 +5885,7 @@
         <v>154</v>
       </c>
       <c r="D40">
-        <v>4.59</v>
+        <v>5.75</v>
       </c>
       <c r="E40" t="s">
         <v>83</v>
@@ -5911,7 +5911,7 @@
         <v>127</v>
       </c>
       <c r="D41">
-        <v>4.59</v>
+        <v>5.75</v>
       </c>
       <c r="E41" t="s">
         <v>83</v>
@@ -5937,7 +5937,7 @@
         <v>82</v>
       </c>
       <c r="D42">
-        <v>2.2999999999999998</v>
+        <v>2.88</v>
       </c>
       <c r="E42" t="s">
         <v>83</v>
@@ -6197,7 +6197,7 @@
         <v>136</v>
       </c>
       <c r="D52">
-        <v>2901.6</v>
+        <v>2925.12</v>
       </c>
       <c r="E52" t="s">
         <v>35</v>
@@ -6209,7 +6209,7 @@
         <v>1.2</v>
       </c>
       <c r="H52">
-        <v>3481.9199999999996</v>
+        <v>3510.1439999999998</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -6223,7 +6223,7 @@
         <v>102</v>
       </c>
       <c r="D53">
-        <v>1004.68</v>
+        <v>1012.82</v>
       </c>
       <c r="E53" t="s">
         <v>75</v>
@@ -6235,7 +6235,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H53">
-        <v>1105.1480000000001</v>
+        <v>1114.1020000000001</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -6249,7 +6249,7 @@
         <v>84</v>
       </c>
       <c r="D54">
-        <v>3.63</v>
+        <v>3.66</v>
       </c>
       <c r="E54" t="s">
         <v>83</v>
@@ -6483,7 +6483,7 @@
         <v>111</v>
       </c>
       <c r="D63">
-        <v>6.77</v>
+        <v>6.67</v>
       </c>
       <c r="E63" t="s">
         <v>75</v>
@@ -6495,7 +6495,7 @@
         <v>15</v>
       </c>
       <c r="H63">
-        <v>101.55</v>
+        <v>100.05</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -6509,7 +6509,7 @@
         <v>110</v>
       </c>
       <c r="D64">
-        <v>6.77</v>
+        <v>6.67</v>
       </c>
       <c r="E64" t="s">
         <v>75</v>
@@ -6521,7 +6521,7 @@
         <v>11</v>
       </c>
       <c r="H64">
-        <v>74.47</v>
+        <v>73.37</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -6535,7 +6535,7 @@
         <v>147</v>
       </c>
       <c r="D65">
-        <v>244.36</v>
+        <v>240.68</v>
       </c>
       <c r="E65" t="s">
         <v>143</v>
@@ -6547,7 +6547,7 @@
         <v>6</v>
       </c>
       <c r="H65">
-        <v>1466.16</v>
+        <v>1444.08</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -6561,7 +6561,7 @@
         <v>142</v>
       </c>
       <c r="D66">
-        <v>81.900000000000006</v>
+        <v>80.67</v>
       </c>
       <c r="E66" t="s">
         <v>143</v>
@@ -6573,7 +6573,7 @@
         <v>2</v>
       </c>
       <c r="H66">
-        <v>163.80000000000001</v>
+        <v>161.34</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -6587,7 +6587,7 @@
         <v>96</v>
       </c>
       <c r="D67">
-        <v>75.81</v>
+        <v>74.67</v>
       </c>
       <c r="E67" t="s">
         <v>20</v>
@@ -6599,7 +6599,7 @@
         <v>45</v>
       </c>
       <c r="H67">
-        <v>3411.4500000000003</v>
+        <v>3360.15</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -6613,7 +6613,7 @@
         <v>146</v>
       </c>
       <c r="D68">
-        <v>26.19</v>
+        <v>24.3</v>
       </c>
       <c r="E68" t="s">
         <v>143</v>
@@ -6625,7 +6625,7 @@
         <v>6</v>
       </c>
       <c r="H68">
-        <v>157.14000000000001</v>
+        <v>145.80000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -6639,7 +6639,7 @@
         <v>110</v>
       </c>
       <c r="D69">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="E69" t="s">
         <v>75</v>
@@ -6651,7 +6651,7 @@
         <v>11</v>
       </c>
       <c r="H69">
-        <v>21.34</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -6665,7 +6665,7 @@
         <v>74</v>
       </c>
       <c r="D70">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="E70" t="s">
         <v>75</v>
@@ -6677,7 +6677,7 @@
         <v>11</v>
       </c>
       <c r="H70">
-        <v>21.34</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -6691,7 +6691,7 @@
         <v>102</v>
       </c>
       <c r="D71">
-        <v>339.5</v>
+        <v>315</v>
       </c>
       <c r="E71" t="s">
         <v>75</v>
@@ -6703,7 +6703,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H71">
-        <v>373.45000000000005</v>
+        <v>346.5</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -6717,7 +6717,7 @@
         <v>125</v>
       </c>
       <c r="D72">
-        <v>75.38</v>
+        <v>69.94</v>
       </c>
       <c r="E72" t="s">
         <v>75</v>
@@ -6729,7 +6729,7 @@
         <v>8.5</v>
       </c>
       <c r="H72">
-        <v>640.73</v>
+        <v>594.49</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -6743,7 +6743,7 @@
         <v>127</v>
       </c>
       <c r="D73">
-        <v>0.87</v>
+        <v>0.81</v>
       </c>
       <c r="E73" t="s">
         <v>83</v>
@@ -6769,7 +6769,7 @@
         <v>82</v>
       </c>
       <c r="D74">
-        <v>0.56999999999999995</v>
+        <v>0.53</v>
       </c>
       <c r="E74" t="s">
         <v>83</v>
@@ -7029,7 +7029,7 @@
         <v>190</v>
       </c>
       <c r="D84">
-        <v>91.77</v>
+        <v>90.8</v>
       </c>
       <c r="E84" t="s">
         <v>75</v>
@@ -7041,7 +7041,7 @@
         <v>0.7</v>
       </c>
       <c r="H84">
-        <v>64.23899999999999</v>
+        <v>63.559999999999995</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -7081,7 +7081,7 @@
         <v>102</v>
       </c>
       <c r="D86">
-        <v>309.42</v>
+        <v>306.36</v>
       </c>
       <c r="E86" t="s">
         <v>75</v>
@@ -7093,7 +7093,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H86">
-        <v>340.36200000000002</v>
+        <v>336.99600000000004</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -7107,7 +7107,7 @@
         <v>84</v>
       </c>
       <c r="D87">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E87" t="s">
         <v>83</v>
@@ -7237,7 +7237,7 @@
         <v>102</v>
       </c>
       <c r="D92">
-        <v>463.43</v>
+        <v>532.79999999999995</v>
       </c>
       <c r="E92" t="s">
         <v>75</v>
@@ -7249,7 +7249,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H92">
-        <v>509.77300000000002</v>
+        <v>586.08000000000004</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -7263,7 +7263,7 @@
         <v>159</v>
       </c>
       <c r="D93">
-        <v>2.5099999999999998</v>
+        <v>2.88</v>
       </c>
       <c r="E93" t="s">
         <v>20</v>
@@ -7275,7 +7275,7 @@
         <v>15</v>
       </c>
       <c r="H93">
-        <v>37.65</v>
+        <v>43.199999999999996</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -7289,7 +7289,7 @@
         <v>155</v>
       </c>
       <c r="D94">
-        <v>3.01</v>
+        <v>3.46</v>
       </c>
       <c r="E94" t="s">
         <v>83</v>
@@ -7315,7 +7315,7 @@
         <v>84</v>
       </c>
       <c r="D95">
-        <v>0.5</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E95" t="s">
         <v>83</v>
@@ -7341,7 +7341,7 @@
         <v>127</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E96" t="s">
         <v>83</v>
@@ -7367,7 +7367,7 @@
         <v>82</v>
       </c>
       <c r="D97">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="E97" t="s">
         <v>83</v>
@@ -7393,7 +7393,7 @@
         <v>102</v>
       </c>
       <c r="D98">
-        <v>1018.44</v>
+        <v>1018.26</v>
       </c>
       <c r="E98" t="s">
         <v>75</v>
@@ -7405,7 +7405,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H98">
-        <v>1120.2840000000001</v>
+        <v>1120.086</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -7445,7 +7445,7 @@
         <v>137</v>
       </c>
       <c r="D100">
-        <v>139.19999999999999</v>
+        <v>144</v>
       </c>
       <c r="E100" t="s">
         <v>35</v>
@@ -7457,7 +7457,7 @@
         <v>0.8</v>
       </c>
       <c r="H100">
-        <v>111.36</v>
+        <v>115.2</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -7471,7 +7471,7 @@
         <v>102</v>
       </c>
       <c r="D101">
-        <v>34.450000000000003</v>
+        <v>35.64</v>
       </c>
       <c r="E101" t="s">
         <v>75</v>
@@ -7483,7 +7483,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H101">
-        <v>37.895000000000003</v>
+        <v>39.204000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -7523,7 +7523,7 @@
         <v>146</v>
       </c>
       <c r="D103">
-        <v>13.02</v>
+        <v>12.18</v>
       </c>
       <c r="E103" t="s">
         <v>143</v>
@@ -7535,7 +7535,7 @@
         <v>6</v>
       </c>
       <c r="H103">
-        <v>78.12</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -7549,7 +7549,7 @@
         <v>110</v>
       </c>
       <c r="D104">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="E104" t="s">
         <v>75</v>
@@ -7561,7 +7561,7 @@
         <v>11</v>
       </c>
       <c r="H104">
-        <v>2.09</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -7575,7 +7575,7 @@
         <v>74</v>
       </c>
       <c r="D105">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="E105" t="s">
         <v>75</v>
@@ -7587,7 +7587,7 @@
         <v>11</v>
       </c>
       <c r="H105">
-        <v>2.09</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -7601,7 +7601,7 @@
         <v>126</v>
       </c>
       <c r="D106">
-        <v>13.37</v>
+        <v>12.51</v>
       </c>
       <c r="E106" t="s">
         <v>75</v>
@@ -7613,7 +7613,7 @@
         <v>8</v>
       </c>
       <c r="H106">
-        <v>106.96</v>
+        <v>100.08</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -7627,7 +7627,7 @@
         <v>102</v>
       </c>
       <c r="D107">
-        <v>32.549999999999997</v>
+        <v>30.45</v>
       </c>
       <c r="E107" t="s">
         <v>75</v>
@@ -7639,7 +7639,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H107">
-        <v>35.805</v>
+        <v>33.495000000000005</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -7679,7 +7679,7 @@
         <v>82</v>
       </c>
       <c r="D109">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E109" t="s">
         <v>83</v>
@@ -9967,7 +9967,7 @@
         <v>103</v>
       </c>
       <c r="D197">
-        <v>56.21</v>
+        <v>56.19</v>
       </c>
       <c r="E197" t="s">
         <v>16</v>
@@ -9979,7 +9979,7 @@
         <v>31</v>
       </c>
       <c r="H197">
-        <v>1742.51</v>
+        <v>1741.8899999999999</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -9993,7 +9993,7 @@
         <v>101</v>
       </c>
       <c r="D198">
-        <v>294.42</v>
+        <v>294.31</v>
       </c>
       <c r="E198" t="s">
         <v>75</v>
@@ -10005,7 +10005,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H198">
-        <v>323.86200000000002</v>
+        <v>323.74100000000004</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -10019,7 +10019,7 @@
         <v>100</v>
       </c>
       <c r="D199">
-        <v>16.059999999999999</v>
+        <v>16.05</v>
       </c>
       <c r="E199" t="s">
         <v>75</v>
@@ -10031,7 +10031,7 @@
         <v>8</v>
       </c>
       <c r="H199">
-        <v>128.47999999999999</v>
+        <v>128.4</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -10045,7 +10045,7 @@
         <v>103</v>
       </c>
       <c r="D200">
-        <v>21.83</v>
+        <v>12.45</v>
       </c>
       <c r="E200" t="s">
         <v>16</v>
@@ -10057,7 +10057,7 @@
         <v>31</v>
       </c>
       <c r="H200">
-        <v>676.7299999999999</v>
+        <v>385.95</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -10071,7 +10071,7 @@
         <v>101</v>
       </c>
       <c r="D201">
-        <v>114.35</v>
+        <v>65.23</v>
       </c>
       <c r="E201" t="s">
         <v>75</v>
@@ -10083,7 +10083,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H201">
-        <v>125.78500000000001</v>
+        <v>71.753000000000014</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -10097,7 +10097,7 @@
         <v>100</v>
       </c>
       <c r="D202">
-        <v>6.03</v>
+        <v>3.44</v>
       </c>
       <c r="E202" t="s">
         <v>75</v>
@@ -10109,7 +10109,7 @@
         <v>8</v>
       </c>
       <c r="H202">
-        <v>48.24</v>
+        <v>27.52</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -10123,7 +10123,7 @@
         <v>104</v>
       </c>
       <c r="D203">
-        <v>3.44</v>
+        <v>2.71</v>
       </c>
       <c r="E203" t="s">
         <v>20</v>
@@ -10135,7 +10135,7 @@
         <v>47</v>
       </c>
       <c r="H203">
-        <v>161.68</v>
+        <v>127.37</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -10149,7 +10149,7 @@
         <v>122</v>
       </c>
       <c r="D204">
-        <v>5.01</v>
+        <v>3.94</v>
       </c>
       <c r="E204" t="s">
         <v>24</v>
@@ -10161,7 +10161,7 @@
         <v>7</v>
       </c>
       <c r="H204">
-        <v>35.07</v>
+        <v>27.58</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -10175,7 +10175,7 @@
         <v>101</v>
       </c>
       <c r="D205">
-        <v>20.47</v>
+        <v>16.09</v>
       </c>
       <c r="E205" t="s">
         <v>75</v>
@@ -10187,7 +10187,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H205">
-        <v>22.516999999999999</v>
+        <v>17.699000000000002</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -10201,7 +10201,7 @@
         <v>100</v>
       </c>
       <c r="D206">
-        <v>4.4400000000000004</v>
+        <v>3.49</v>
       </c>
       <c r="E206" t="s">
         <v>75</v>
@@ -10213,7 +10213,7 @@
         <v>8</v>
       </c>
       <c r="H206">
-        <v>35.520000000000003</v>
+        <v>27.92</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -10227,7 +10227,7 @@
         <v>103</v>
       </c>
       <c r="D207">
-        <v>4.28</v>
+        <v>4.3</v>
       </c>
       <c r="E207" t="s">
         <v>16</v>
@@ -10239,7 +10239,7 @@
         <v>31</v>
       </c>
       <c r="H207">
-        <v>132.68</v>
+        <v>133.29999999999998</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -10253,7 +10253,7 @@
         <v>101</v>
       </c>
       <c r="D208">
-        <v>29.99</v>
+        <v>30.13</v>
       </c>
       <c r="E208" t="s">
         <v>75</v>
@@ -10265,7 +10265,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H208">
-        <v>32.989000000000004</v>
+        <v>33.143000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -10747,7 +10747,7 @@
         <v>165</v>
       </c>
       <c r="D227">
-        <v>11.52</v>
+        <v>11.53</v>
       </c>
       <c r="E227" t="s">
         <v>86</v>
@@ -10759,7 +10759,7 @@
         <v>20</v>
       </c>
       <c r="H227">
-        <v>230.39999999999998</v>
+        <v>230.6</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -10773,7 +10773,7 @@
         <v>157</v>
       </c>
       <c r="D228">
-        <v>33.4</v>
+        <v>33.44</v>
       </c>
       <c r="E228" t="s">
         <v>86</v>
@@ -10785,7 +10785,7 @@
         <v>22</v>
       </c>
       <c r="H228">
-        <v>734.8</v>
+        <v>735.68</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -10799,7 +10799,7 @@
         <v>149</v>
       </c>
       <c r="D229">
-        <v>28.79</v>
+        <v>28.83</v>
       </c>
       <c r="E229" t="s">
         <v>86</v>
@@ -10811,7 +10811,7 @@
         <v>20</v>
       </c>
       <c r="H229">
-        <v>575.79999999999995</v>
+        <v>576.59999999999991</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -10825,7 +10825,7 @@
         <v>141</v>
       </c>
       <c r="D230">
-        <v>8.06</v>
+        <v>8.07</v>
       </c>
       <c r="E230" t="s">
         <v>24</v>
@@ -10837,7 +10837,7 @@
         <v>6</v>
       </c>
       <c r="H230">
-        <v>48.36</v>
+        <v>48.42</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -10981,7 +10981,7 @@
         <v>157</v>
       </c>
       <c r="D236">
-        <v>32.79</v>
+        <v>32.81</v>
       </c>
       <c r="E236" t="s">
         <v>86</v>
@@ -10993,7 +10993,7 @@
         <v>22</v>
       </c>
       <c r="H236">
-        <v>721.38</v>
+        <v>721.82</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -11007,7 +11007,7 @@
         <v>148</v>
       </c>
       <c r="D237">
-        <v>37.32</v>
+        <v>37.340000000000003</v>
       </c>
       <c r="E237" t="s">
         <v>86</v>
@@ -11019,7 +11019,7 @@
         <v>25</v>
       </c>
       <c r="H237">
-        <v>933</v>
+        <v>933.50000000000011</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -11033,7 +11033,7 @@
         <v>108</v>
       </c>
       <c r="D238">
-        <v>53.14</v>
+        <v>53.33</v>
       </c>
       <c r="E238" t="s">
         <v>16</v>
@@ -11045,7 +11045,7 @@
         <v>112</v>
       </c>
       <c r="H238">
-        <v>5951.68</v>
+        <v>5972.96</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -11738,8 +11738,8 @@
   </sheetPr>
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120:XFD124"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11893,7 +11893,7 @@
         <v>194</v>
       </c>
       <c r="D6">
-        <v>30.14</v>
+        <v>39.549999999999997</v>
       </c>
       <c r="E6" t="s">
         <v>192</v>
@@ -11919,7 +11919,7 @@
         <v>191</v>
       </c>
       <c r="D7">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="E7" t="s">
         <v>192</v>
@@ -11931,7 +11931,7 @@
         <v>18</v>
       </c>
       <c r="H7">
-        <v>2.16</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -11945,7 +11945,7 @@
         <v>194</v>
       </c>
       <c r="D8">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="E8" t="s">
         <v>192</v>
@@ -11971,7 +11971,7 @@
         <v>197</v>
       </c>
       <c r="D9">
-        <v>3.04</v>
+        <v>4.8</v>
       </c>
       <c r="E9" t="s">
         <v>192</v>
@@ -11983,7 +11983,7 @@
         <v>18</v>
       </c>
       <c r="H9">
-        <v>54.72</v>
+        <v>86.399999999999991</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -11997,7 +11997,7 @@
         <v>193</v>
       </c>
       <c r="D10">
-        <v>3.04</v>
+        <v>4.8</v>
       </c>
       <c r="E10" t="s">
         <v>192</v>
@@ -12009,7 +12009,7 @@
         <v>18</v>
       </c>
       <c r="H10">
-        <v>54.72</v>
+        <v>86.399999999999991</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -12023,7 +12023,7 @@
         <v>191</v>
       </c>
       <c r="D11">
-        <v>4.5599999999999996</v>
+        <v>7.2</v>
       </c>
       <c r="E11" t="s">
         <v>192</v>
@@ -12035,7 +12035,7 @@
         <v>18</v>
       </c>
       <c r="H11">
-        <v>82.08</v>
+        <v>129.6</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -12049,7 +12049,7 @@
         <v>194</v>
       </c>
       <c r="D12">
-        <v>3.04</v>
+        <v>4.8</v>
       </c>
       <c r="E12" t="s">
         <v>192</v>
@@ -12075,7 +12075,7 @@
         <v>194</v>
       </c>
       <c r="D13">
-        <v>1.1299999999999999</v>
+        <v>2.25</v>
       </c>
       <c r="E13" t="s">
         <v>192</v>
@@ -12205,7 +12205,7 @@
         <v>191</v>
       </c>
       <c r="D18">
-        <v>34.43</v>
+        <v>43.16</v>
       </c>
       <c r="E18" t="s">
         <v>192</v>
@@ -12217,7 +12217,7 @@
         <v>18</v>
       </c>
       <c r="H18">
-        <v>619.74</v>
+        <v>776.87999999999988</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -12231,7 +12231,7 @@
         <v>194</v>
       </c>
       <c r="D19">
-        <v>34.43</v>
+        <v>43.16</v>
       </c>
       <c r="E19" t="s">
         <v>192</v>
@@ -12361,7 +12361,7 @@
         <v>191</v>
       </c>
       <c r="D24">
-        <v>151.13</v>
+        <v>152.35</v>
       </c>
       <c r="E24" t="s">
         <v>192</v>
@@ -12373,7 +12373,7 @@
         <v>18</v>
       </c>
       <c r="H24">
-        <v>2720.34</v>
+        <v>2742.2999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -12387,7 +12387,7 @@
         <v>194</v>
       </c>
       <c r="D25">
-        <v>181.35</v>
+        <v>182.82</v>
       </c>
       <c r="E25" t="s">
         <v>192</v>
@@ -12517,7 +12517,7 @@
         <v>191</v>
       </c>
       <c r="D30">
-        <v>155.69</v>
+        <v>153.34</v>
       </c>
       <c r="E30" t="s">
         <v>192</v>
@@ -12529,7 +12529,7 @@
         <v>18</v>
       </c>
       <c r="H30">
-        <v>2802.42</v>
+        <v>2760.12</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -12543,7 +12543,7 @@
         <v>194</v>
       </c>
       <c r="D31">
-        <v>189.53</v>
+        <v>186.68</v>
       </c>
       <c r="E31" t="s">
         <v>192</v>
@@ -12569,7 +12569,7 @@
         <v>197</v>
       </c>
       <c r="D32">
-        <v>8.73</v>
+        <v>8.1</v>
       </c>
       <c r="E32" t="s">
         <v>192</v>
@@ -12581,7 +12581,7 @@
         <v>18</v>
       </c>
       <c r="H32">
-        <v>157.14000000000001</v>
+        <v>145.79999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -12595,7 +12595,7 @@
         <v>193</v>
       </c>
       <c r="D33">
-        <v>7.76</v>
+        <v>7.2</v>
       </c>
       <c r="E33" t="s">
         <v>192</v>
@@ -12607,7 +12607,7 @@
         <v>18</v>
       </c>
       <c r="H33">
-        <v>139.68</v>
+        <v>129.6</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -12621,7 +12621,7 @@
         <v>191</v>
       </c>
       <c r="D34">
-        <v>8.73</v>
+        <v>8.1</v>
       </c>
       <c r="E34" t="s">
         <v>192</v>
@@ -12633,7 +12633,7 @@
         <v>18</v>
       </c>
       <c r="H34">
-        <v>157.14000000000001</v>
+        <v>145.79999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -12647,7 +12647,7 @@
         <v>194</v>
       </c>
       <c r="D35">
-        <v>9.6999999999999993</v>
+        <v>9</v>
       </c>
       <c r="E35" t="s">
         <v>192</v>
@@ -12829,7 +12829,7 @@
         <v>191</v>
       </c>
       <c r="D42">
-        <v>8.5500000000000007</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="E42" t="s">
         <v>192</v>
@@ -12841,7 +12841,7 @@
         <v>18</v>
       </c>
       <c r="H42">
-        <v>153.9</v>
+        <v>152.28000000000003</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -12855,7 +12855,7 @@
         <v>194</v>
       </c>
       <c r="D43">
-        <v>8.5500000000000007</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="E43" t="s">
         <v>192</v>
@@ -12933,7 +12933,7 @@
         <v>191</v>
       </c>
       <c r="D46">
-        <v>41.26</v>
+        <v>40.85</v>
       </c>
       <c r="E46" t="s">
         <v>192</v>
@@ -12945,7 +12945,7 @@
         <v>18</v>
       </c>
       <c r="H46">
-        <v>742.68</v>
+        <v>735.30000000000007</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -12959,7 +12959,7 @@
         <v>194</v>
       </c>
       <c r="D47">
-        <v>41.26</v>
+        <v>40.85</v>
       </c>
       <c r="E47" t="s">
         <v>192</v>
@@ -13037,7 +13037,7 @@
         <v>191</v>
       </c>
       <c r="D50">
-        <v>50.1</v>
+        <v>57.6</v>
       </c>
       <c r="E50" t="s">
         <v>192</v>
@@ -13049,7 +13049,7 @@
         <v>18</v>
       </c>
       <c r="H50">
-        <v>901.80000000000007</v>
+        <v>1036.8</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -13063,7 +13063,7 @@
         <v>194</v>
       </c>
       <c r="D51">
-        <v>50.1</v>
+        <v>57.6</v>
       </c>
       <c r="E51" t="s">
         <v>192</v>
@@ -13089,7 +13089,7 @@
         <v>191</v>
       </c>
       <c r="D52">
-        <v>169.74</v>
+        <v>169.71</v>
       </c>
       <c r="E52" t="s">
         <v>192</v>
@@ -13101,7 +13101,7 @@
         <v>18</v>
       </c>
       <c r="H52">
-        <v>3055.32</v>
+        <v>3054.78</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -13115,7 +13115,7 @@
         <v>194</v>
       </c>
       <c r="D53">
-        <v>169.74</v>
+        <v>169.71</v>
       </c>
       <c r="E53" t="s">
         <v>192</v>
@@ -13141,7 +13141,7 @@
         <v>191</v>
       </c>
       <c r="D54">
-        <v>2.3199999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="E54" t="s">
         <v>192</v>
@@ -13153,7 +13153,7 @@
         <v>18</v>
       </c>
       <c r="H54">
-        <v>41.76</v>
+        <v>43.199999999999996</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -13167,7 +13167,7 @@
         <v>194</v>
       </c>
       <c r="D55">
-        <v>4.6399999999999997</v>
+        <v>4.8</v>
       </c>
       <c r="E55" t="s">
         <v>192</v>
@@ -13193,7 +13193,7 @@
         <v>191</v>
       </c>
       <c r="D56">
-        <v>7.44</v>
+        <v>6.96</v>
       </c>
       <c r="E56" t="s">
         <v>192</v>
@@ -13205,7 +13205,7 @@
         <v>18</v>
       </c>
       <c r="H56">
-        <v>133.92000000000002</v>
+        <v>125.28</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -13219,7 +13219,7 @@
         <v>194</v>
       </c>
       <c r="D57">
-        <v>7.44</v>
+        <v>6.96</v>
       </c>
       <c r="E57" t="s">
         <v>192</v>
@@ -13843,7 +13843,7 @@
         <v>191</v>
       </c>
       <c r="D81">
-        <v>69.59</v>
+        <v>69.56</v>
       </c>
       <c r="E81" t="s">
         <v>192</v>
@@ -13855,7 +13855,7 @@
         <v>18</v>
       </c>
       <c r="H81">
-        <v>1252.6200000000001</v>
+        <v>1252.08</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -13869,7 +13869,7 @@
         <v>194</v>
       </c>
       <c r="D82">
-        <v>58.88</v>
+        <v>58.86</v>
       </c>
       <c r="E82" t="s">
         <v>192</v>
@@ -13895,7 +13895,7 @@
         <v>191</v>
       </c>
       <c r="D83">
-        <v>33.26</v>
+        <v>18.98</v>
       </c>
       <c r="E83" t="s">
         <v>192</v>
@@ -13907,7 +13907,7 @@
         <v>18</v>
       </c>
       <c r="H83">
-        <v>598.67999999999995</v>
+        <v>341.64</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -13921,7 +13921,7 @@
         <v>194</v>
       </c>
       <c r="D84">
-        <v>22.87</v>
+        <v>13.05</v>
       </c>
       <c r="E84" t="s">
         <v>192</v>
@@ -13947,7 +13947,7 @@
         <v>191</v>
       </c>
       <c r="D85">
-        <v>4.7</v>
+        <v>3.69</v>
       </c>
       <c r="E85" t="s">
         <v>192</v>
@@ -13959,7 +13959,7 @@
         <v>18</v>
       </c>
       <c r="H85">
-        <v>84.600000000000009</v>
+        <v>66.42</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -13973,7 +13973,7 @@
         <v>194</v>
       </c>
       <c r="D86">
-        <v>3.13</v>
+        <v>2.46</v>
       </c>
       <c r="E86" t="s">
         <v>192</v>
@@ -13999,7 +13999,7 @@
         <v>191</v>
       </c>
       <c r="D87">
-        <v>20.13</v>
+        <v>20.23</v>
       </c>
       <c r="E87" t="s">
         <v>192</v>
@@ -14011,7 +14011,7 @@
         <v>18</v>
       </c>
       <c r="H87">
-        <v>362.34</v>
+        <v>364.14</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -14025,7 +14025,7 @@
         <v>194</v>
       </c>
       <c r="D88">
-        <v>20.13</v>
+        <v>20.23</v>
       </c>
       <c r="E88" t="s">
         <v>192</v>
@@ -14259,7 +14259,7 @@
         <v>199</v>
       </c>
       <c r="D97">
-        <v>34.549999999999997</v>
+        <v>34.6</v>
       </c>
       <c r="E97" t="s">
         <v>192</v>
@@ -14271,7 +14271,7 @@
         <v>16</v>
       </c>
       <c r="H97">
-        <v>552.79999999999995</v>
+        <v>553.6</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -14285,7 +14285,7 @@
         <v>194</v>
       </c>
       <c r="D98">
-        <v>34.549999999999997</v>
+        <v>34.6</v>
       </c>
       <c r="E98" t="s">
         <v>192</v>
@@ -14363,7 +14363,7 @@
         <v>199</v>
       </c>
       <c r="D101">
-        <v>33.92</v>
+        <v>33.94</v>
       </c>
       <c r="E101" t="s">
         <v>192</v>
@@ -14375,7 +14375,7 @@
         <v>16</v>
       </c>
       <c r="H101">
-        <v>542.72</v>
+        <v>543.04</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -14389,7 +14389,7 @@
         <v>194</v>
       </c>
       <c r="D102">
-        <v>33.92</v>
+        <v>33.94</v>
       </c>
       <c r="E102" t="s">
         <v>192</v>
@@ -14415,7 +14415,7 @@
         <v>198</v>
       </c>
       <c r="D103">
-        <v>15.94</v>
+        <v>16</v>
       </c>
       <c r="E103" t="s">
         <v>192</v>
@@ -14427,7 +14427,7 @@
         <v>20</v>
       </c>
       <c r="H103">
-        <v>318.8</v>
+        <v>320</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -14441,7 +14441,7 @@
         <v>194</v>
       </c>
       <c r="D104">
-        <v>15.94</v>
+        <v>16</v>
       </c>
       <c r="E104" t="s">
         <v>192</v>
@@ -17530,8 +17530,8 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
